--- a/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.03368647635313831</v>
+        <v>0.03368647635313832</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.02447763130753705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02910224839773428</v>
+        <v>0.02910224839773427</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0174224294566502</v>
+        <v>0.0183447926005815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01405383195185399</v>
+        <v>0.01430128552644144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01969340930901675</v>
+        <v>0.0189685542973137</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0595911247356397</v>
+        <v>0.05652084862734469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03923567948762153</v>
+        <v>0.04080645052817427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04354018631127</v>
+        <v>0.04373623378328382</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08690219703287609</v>
+        <v>0.08347183701008545</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07186812978056753</v>
+        <v>0.07163816502824753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08440184615806944</v>
+        <v>0.0851713916759882</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1689321372463665</v>
+        <v>0.1566450252547649</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1183039580467228</v>
+        <v>0.1168471905571374</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1279232278820225</v>
+        <v>0.1306995802203032</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0624105092141923</v>
+        <v>0.06303134455783455</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0565846427157458</v>
+        <v>0.0564793711789952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06671245622035588</v>
+        <v>0.06642291794541486</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1283070290198384</v>
+        <v>0.1303118585924383</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1056585721420214</v>
+        <v>0.1056898356571974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1085733883856353</v>
+        <v>0.1059664560948757</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.08056249761923091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08274823687159648</v>
+        <v>0.08274823687159646</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05252952790165374</v>
+        <v>0.05222353853128228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05425144575179828</v>
+        <v>0.05429262294412573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06114617783484732</v>
+        <v>0.06300990805286452</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1278220332853853</v>
+        <v>0.131588733845241</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1147356753495345</v>
+        <v>0.1187205891123351</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1132981332788851</v>
+        <v>0.1115280785767675</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009713756445129992</v>
+        <v>0.0088225693891874</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0287264476415524</v>
+        <v>0.02774550991560163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02404679113214395</v>
+        <v>0.02266683846240386</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05510154348056296</v>
+        <v>0.05216627849661146</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08176166687974219</v>
+        <v>0.0768557944898557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05625289464394619</v>
+        <v>0.05735886319682389</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.1236369954417041</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.08613182424355911</v>
+        <v>0.08613182424355909</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1051285002164989</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09295230025336328</v>
+        <v>0.09186407484482588</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06103028734018311</v>
+        <v>0.0633829985318676</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08407194880112381</v>
+        <v>0.08330229634516149</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1674145014450069</v>
+        <v>0.1603483628982876</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1156435512866023</v>
+        <v>0.1176164194755874</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.127000560164909</v>
+        <v>0.130381696370294</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.05573249804365668</v>
+        <v>0.05573249804365667</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.1101687051764865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.0839152495097485</v>
+        <v>0.08391524950974849</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03953352979857106</v>
+        <v>0.03870535420317826</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08960006549132742</v>
+        <v>0.09006729887321389</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07060241720679072</v>
+        <v>0.07125958225621787</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07735462983869371</v>
+        <v>0.07558851085677891</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1343474365868246</v>
+        <v>0.1339440986978714</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09806237677038605</v>
+        <v>0.09947613959137534</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1480091366968525</v>
+        <v>0.1471880974332588</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1552545157653146</v>
+        <v>0.1549724631337034</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1578567017043628</v>
+        <v>0.1592272070972604</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2064370381768146</v>
+        <v>0.2014431302761366</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2054963232249926</v>
+        <v>0.2022755975288885</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1957061170245344</v>
+        <v>0.1954111708172182</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08954592698644513</v>
+        <v>0.08981966478837909</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.09495048231650099</v>
+        <v>0.09447554175000494</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.09398665731551784</v>
+        <v>0.09457141731853017</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1113589095605645</v>
+        <v>0.1120593932805328</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1137753717715375</v>
+        <v>0.1132565501899328</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1095243152290794</v>
+        <v>0.1092716577716998</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5555</v>
+        <v>5849</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4442</v>
+        <v>4520</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12503</v>
+        <v>12043</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19000</v>
+        <v>18021</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12401</v>
+        <v>12897</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27644</v>
+        <v>27768</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46114</v>
+        <v>44294</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39182</v>
+        <v>39057</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>90803</v>
+        <v>91631</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>89643</v>
+        <v>83123</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>64499</v>
+        <v>63704</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>137625</v>
+        <v>140612</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19663</v>
+        <v>19859</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20166</v>
+        <v>20128</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>44793</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40424</v>
+        <v>41056</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37655</v>
+        <v>37666</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>72901</v>
+        <v>71150</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19601</v>
+        <v>19487</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22802</v>
+        <v>22820</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48517</v>
+        <v>49995</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47696</v>
+        <v>49102</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>48224</v>
+        <v>49899</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>89897</v>
+        <v>88492</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1998</v>
+        <v>1814</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6576</v>
+        <v>6351</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10450</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11332</v>
+        <v>10729</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18717</v>
+        <v>17594</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24446</v>
+        <v>24927</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25163</v>
+        <v>24868</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16097</v>
+        <v>16717</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>44933</v>
+        <v>44521</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>45320</v>
+        <v>43407</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30501</v>
+        <v>31021</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>67876</v>
+        <v>69683</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>28405</v>
+        <v>27810</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>69110</v>
+        <v>69470</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>105185</v>
+        <v>106164</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>55580</v>
+        <v>54311</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>103624</v>
+        <v>103313</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>146095</v>
+        <v>148202</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>118122</v>
+        <v>117467</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>129068</v>
+        <v>128833</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>257212</v>
+        <v>259445</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>164752</v>
+        <v>160766</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>170835</v>
+        <v>168158</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>318884</v>
+        <v>318404</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>316155</v>
+        <v>317122</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>354474</v>
+        <v>352701</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>682710</v>
+        <v>686958</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>393169</v>
+        <v>395642</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>424752</v>
+        <v>422815</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>795574</v>
+        <v>793739</v>
       </c>
     </row>
     <row r="40">
